--- a/teaching/traditional_assets/database/data/romania/romania_building_materials.xlsx
+++ b/teaching/traditional_assets/database/data/romania/romania_building_materials.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.174</v>
+        <v>-0.208</v>
       </c>
       <c r="G2">
-        <v>-0.04591194968553459</v>
+        <v>-0.2736111111111111</v>
       </c>
       <c r="H2">
-        <v>-0.04591194968553459</v>
+        <v>-0.2736111111111111</v>
       </c>
       <c r="I2">
-        <v>-0.2786163522012579</v>
+        <v>-0.45625</v>
       </c>
       <c r="J2">
-        <v>-0.2786163522012579</v>
+        <v>-0.45625</v>
       </c>
       <c r="K2">
-        <v>-0.71</v>
+        <v>-0.89</v>
       </c>
       <c r="L2">
-        <v>-0.4465408805031446</v>
+        <v>-0.6180555555555556</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.018</v>
+        <v>0.292</v>
       </c>
       <c r="V2">
-        <v>0.009677419354838708</v>
+        <v>0.2994871794871795</v>
       </c>
       <c r="W2">
-        <v>0.239057239057239</v>
+        <v>1.145431145431145</v>
       </c>
       <c r="X2">
-        <v>0.2389317301515221</v>
+        <v>0.4087167192407813</v>
       </c>
       <c r="Y2">
-        <v>0.00012550890571697</v>
+        <v>0.7367144261903642</v>
       </c>
       <c r="Z2">
-        <v>0.5287662121715997</v>
+        <v>0.2912032355915066</v>
       </c>
       <c r="AA2">
-        <v>-0.1473229132025275</v>
+        <v>-0.1328614762386249</v>
       </c>
       <c r="AB2">
-        <v>0.09425965317226302</v>
+        <v>0.09087079008916338</v>
       </c>
       <c r="AC2">
-        <v>-0.2415825663747905</v>
+        <v>-0.2237322663277883</v>
       </c>
       <c r="AD2">
-        <v>5.74</v>
+        <v>6.28</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>5.74</v>
+        <v>6.28</v>
       </c>
       <c r="AG2">
-        <v>5.722</v>
+        <v>5.988</v>
       </c>
       <c r="AH2">
-        <v>0.7552631578947369</v>
+        <v>0.8656099241902137</v>
       </c>
       <c r="AI2">
-        <v>1.156558533145275</v>
+        <v>1.37417943107221</v>
       </c>
       <c r="AJ2">
-        <v>0.754682141915062</v>
+        <v>0.8599741490736752</v>
       </c>
       <c r="AK2">
-        <v>1.157128412537917</v>
+        <v>1.399719495091164</v>
       </c>
       <c r="AL2">
-        <v>0.245</v>
+        <v>0.107</v>
       </c>
       <c r="AM2">
-        <v>0.245</v>
+        <v>0.107</v>
       </c>
       <c r="AN2">
-        <v>-24.63519313304721</v>
+        <v>-12.41106719367589</v>
       </c>
       <c r="AO2">
-        <v>-1.808163265306123</v>
+        <v>-6.140186915887851</v>
       </c>
       <c r="AP2">
-        <v>-24.55793991416309</v>
+        <v>-11.83399209486166</v>
       </c>
       <c r="AQ2">
-        <v>-1.808163265306123</v>
+        <v>-6.140186915887851</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.174</v>
+        <v>-0.208</v>
       </c>
       <c r="G3">
-        <v>-0.04591194968553459</v>
+        <v>-0.2736111111111111</v>
       </c>
       <c r="H3">
-        <v>-0.04591194968553459</v>
+        <v>-0.2736111111111111</v>
       </c>
       <c r="I3">
-        <v>-0.2786163522012579</v>
+        <v>-0.45625</v>
       </c>
       <c r="J3">
-        <v>-0.2786163522012579</v>
+        <v>-0.45625</v>
       </c>
       <c r="K3">
-        <v>-0.71</v>
+        <v>-0.89</v>
       </c>
       <c r="L3">
-        <v>-0.4465408805031446</v>
+        <v>-0.6180555555555556</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.018</v>
+        <v>0.292</v>
       </c>
       <c r="V3">
-        <v>0.009677419354838708</v>
+        <v>0.2994871794871795</v>
       </c>
       <c r="W3">
-        <v>0.239057239057239</v>
+        <v>1.145431145431145</v>
       </c>
       <c r="X3">
-        <v>0.2389317301515221</v>
+        <v>0.4087167192407813</v>
       </c>
       <c r="Y3">
-        <v>0.00012550890571697</v>
+        <v>0.7367144261903642</v>
       </c>
       <c r="Z3">
-        <v>0.5287662121715997</v>
+        <v>0.2912032355915066</v>
       </c>
       <c r="AA3">
-        <v>-0.1473229132025275</v>
+        <v>-0.1328614762386249</v>
       </c>
       <c r="AB3">
-        <v>0.09425965317226302</v>
+        <v>0.09087079008916338</v>
       </c>
       <c r="AC3">
-        <v>-0.2415825663747905</v>
+        <v>-0.2237322663277883</v>
       </c>
       <c r="AD3">
-        <v>5.74</v>
+        <v>6.28</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>5.74</v>
+        <v>6.28</v>
       </c>
       <c r="AG3">
-        <v>5.722</v>
+        <v>5.988</v>
       </c>
       <c r="AH3">
-        <v>0.7552631578947369</v>
+        <v>0.8656099241902137</v>
       </c>
       <c r="AI3">
-        <v>1.156558533145275</v>
+        <v>1.37417943107221</v>
       </c>
       <c r="AJ3">
-        <v>0.754682141915062</v>
+        <v>0.8599741490736752</v>
       </c>
       <c r="AK3">
-        <v>1.157128412537917</v>
+        <v>1.399719495091164</v>
       </c>
       <c r="AL3">
-        <v>0.245</v>
+        <v>0.107</v>
       </c>
       <c r="AM3">
-        <v>0.245</v>
+        <v>0.107</v>
       </c>
       <c r="AN3">
-        <v>-24.63519313304721</v>
+        <v>-12.41106719367589</v>
       </c>
       <c r="AO3">
-        <v>-1.808163265306123</v>
+        <v>-6.140186915887851</v>
       </c>
       <c r="AP3">
-        <v>-24.55793991416309</v>
+        <v>-11.83399209486166</v>
       </c>
       <c r="AQ3">
-        <v>-1.808163265306123</v>
+        <v>-6.140186915887851</v>
       </c>
     </row>
   </sheetData>
